--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3D874-21CA-4ABB-9F14-5E41F5E4C4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="95">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -40,9 +41,6 @@
     <t>Tipos de datos: Almacena valores String</t>
   </si>
   <si>
-    <t>Tipo: Indexado (los índices son numéricos)</t>
-  </si>
-  <si>
     <t>Información de la estructura:</t>
   </si>
   <si>
@@ -52,23 +50,433 @@
     <t>//valores</t>
   </si>
   <si>
-    <t>**** COMPLETAR ****</t>
-  </si>
-  <si>
-    <t>Ejemplo de cómo representar las estructuras de datos según lo visto en teoría:</t>
-  </si>
-  <si>
     <t>A continuación puede agregar el resto de las estructuras de datos</t>
   </si>
   <si>
-    <t>¿Para qué se utiliza?: guarda las palabras que se pueden elegidas para jugar wordix</t>
+    <t>palabraWordix</t>
+  </si>
+  <si>
+    <t>PISOS</t>
+  </si>
+  <si>
+    <t>TINTO</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>jugador</t>
+  </si>
+  <si>
+    <t>majo</t>
+  </si>
+  <si>
+    <t>rudolf</t>
+  </si>
+  <si>
+    <t>pink2000</t>
+  </si>
+  <si>
+    <t>intentos</t>
+  </si>
+  <si>
+    <t>puntaje</t>
+  </si>
+  <si>
+    <t>//Clave</t>
+  </si>
+  <si>
+    <t>Tipo: Asociativo (los indices son string o numericos)</t>
+  </si>
+  <si>
+    <t>string y numericos</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: Para guardar datos de partidas</t>
+  </si>
+  <si>
+    <t>partidas</t>
+  </si>
+  <si>
+    <t>victorias</t>
+  </si>
+  <si>
+    <t>porcVictorias</t>
+  </si>
+  <si>
+    <t>$jugador</t>
+  </si>
+  <si>
+    <t>puntajeTotal</t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cargarResumen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$partidas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$jugador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>$estadisticas=</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas=</t>
+  </si>
+  <si>
+    <t>intento1</t>
+  </si>
+  <si>
+    <t>intento3</t>
+  </si>
+  <si>
+    <t>intento2</t>
+  </si>
+  <si>
+    <t>intento4</t>
+  </si>
+  <si>
+    <t>intento5</t>
+  </si>
+  <si>
+    <t>intento6</t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cargarPalabras</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>GOTAS</t>
+  </si>
+  <si>
+    <t>HUEVO</t>
+  </si>
+  <si>
+    <t>//clave</t>
+  </si>
+  <si>
+    <t>FUEGIO</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>MELON</t>
+  </si>
+  <si>
+    <t>YUYOS</t>
+  </si>
+  <si>
+    <t>PIANO</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ESTADO_LETRA_DISPONIBLE</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Ñ</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>//valor</t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>iniciarTeclado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>$teclado=</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>SALTO</t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>escribirTeclado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$teclado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>$OrdenTeclado=</t>
+  </si>
+  <si>
+    <t>numericos</t>
+  </si>
+  <si>
+    <t>Tipos de datos: Almacena valores numerico</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: Para almacenar los intentos, victorias, puntosTotal, porcVictorias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo: indexado </t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: Guardar palabras para jugar</t>
+  </si>
+  <si>
+    <t>Tipo: Asociativo (los indices son string )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: Para mostrar el estado de la letra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo: Indexado </t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: Para poder ordenar el teclado y mostrar en pantalla correctamente</t>
+  </si>
+  <si>
+    <t>//indice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,14 +488,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,6 +507,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +553,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -131,22 +568,72 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -154,35 +641,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +730,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,6 +764,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,9 +799,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,14 +975,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -481,88 +993,1060 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="H4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>2</v>
+      </c>
+      <c r="J10" s="8">
+        <v>6</v>
+      </c>
+      <c r="K10" s="8">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C13" s="8">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8">
+        <v>17</v>
+      </c>
+      <c r="H13" s="8">
+        <v>12</v>
+      </c>
+      <c r="I13" s="8">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8">
+        <v>8</v>
+      </c>
+      <c r="K13" s="8">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2</v>
+      </c>
+      <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F32" s="8">
         <v>4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G32" s="8">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H32" s="8">
+        <v>6</v>
+      </c>
+      <c r="I32" s="8">
+        <v>7</v>
+      </c>
+      <c r="J32" s="8">
+        <v>8</v>
+      </c>
+      <c r="K32" s="11">
+        <v>9</v>
+      </c>
+      <c r="L32" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="1" t="s">
+      <c r="M32" s="8">
+        <v>11</v>
+      </c>
+      <c r="N32" s="8">
+        <v>12</v>
+      </c>
+      <c r="O32" s="8">
+        <v>13</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D50" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E50" s="5">
+        <v>2</v>
+      </c>
+      <c r="F50" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G50" s="5">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H50" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I50" s="5">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J50" s="5">
+        <v>7</v>
+      </c>
+      <c r="K50" s="5">
+        <v>8</v>
+      </c>
+      <c r="L50" s="5">
+        <v>9</v>
+      </c>
+      <c r="M50" s="5">
+        <v>10</v>
+      </c>
+      <c r="N50" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
+      <c r="O50" s="5">
+        <v>12</v>
+      </c>
+      <c r="P50" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>14</v>
+      </c>
+      <c r="R50" s="5">
+        <v>15</v>
+      </c>
+      <c r="S50" s="5">
+        <v>16</v>
+      </c>
+      <c r="T50" s="5">
+        <v>17</v>
+      </c>
+      <c r="U50" s="5">
+        <v>18</v>
+      </c>
+      <c r="V50" s="5">
+        <v>19</v>
+      </c>
+      <c r="W50" s="5">
+        <v>20</v>
+      </c>
+      <c r="X50" s="5">
+        <v>21</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>22</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>23</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>24</v>
+      </c>
+      <c r="AB50" s="5">
+        <v>25</v>
+      </c>
+      <c r="AC50" s="5">
+        <v>26</v>
+      </c>
+      <c r="AD50" s="5">
+        <v>27</v>
+      </c>
+      <c r="AE50" s="5">
+        <v>28</v>
+      </c>
+      <c r="AF50" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="W51" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z51" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA51" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD51" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE51" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
